--- a/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-out/activity-rule.xlsx
+++ b/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-out/activity-rule.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xuanhong\zero-ws\zero-extension\zero-erp\src\main\resources\plugin\erp\oob\rule\process.vendor.check-out\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D6AC5E-04AB-4D11-B55B-86552679CB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52140" yWindow="-6564" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -14,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="136">
   <si>
     <t>key</t>
   </si>
@@ -269,10 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务单：${zn.taskSerial}分派给了“${un.acceptedBy.realname}”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>“${un.openBy.realname}”提交了${zw.name}工单：${zn.serial}。</t>
   </si>
   <si>
@@ -280,10 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$zn.flowEnd == true and $zn.phase == "FINISHED"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,9 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
-  </si>
-  <si>
     <t>$zn.status == "PENDING" and $zo.acceptedBy != null</t>
   </si>
   <si>
@@ -424,13 +410,112 @@
   <si>
     <t>领导审批</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“${lo.realname}”将任务单：${zn.taskSerial}分派给了“${un.toUser.realname}”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.status == "PENDING" and $zn.toUser != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.approve</t>
+  </si>
+  <si>
+    <t>APPROVAL</t>
+  </si>
+  <si>
+    <t>审批意见</t>
+  </si>
+  <si>
+    <t>$zn.commentApproval != null</t>
+  </si>
+  <si>
+    <t>通过：${zn.commentApproval}</t>
+  </si>
+  <si>
+    <t>commentApproval</t>
+  </si>
+  <si>
+    <t>e.draft</t>
+  </si>
+  <si>
+    <t>$zo.taskKey == "e.approve" and $zn.commentReject != null</t>
+  </si>
+  <si>
+    <t>拒绝：${zn.commentReject}</t>
+  </si>
+  <si>
+    <t>commentReject</t>
+  </si>
+  <si>
+    <t>e.admit</t>
+  </si>
+  <si>
+    <t>$zo.taskKey == "e.admit" and $zn.commentReject != null</t>
+  </si>
+  <si>
+    <t>ATTACHMENT</t>
+  </si>
+  <si>
+    <t>附件变更</t>
+  </si>
+  <si>
+    <t>$zn.linkageAttachment != null</t>
+  </si>
+  <si>
+    <t>“${lo.realname}” ${zn.__message}</t>
+  </si>
+  <si>
+    <t>linkageAttachment</t>
+  </si>
+  <si>
+    <t>JSON:workflow/linkage/attachment-rule.json</t>
+  </si>
+  <si>
+    <t>e.logout</t>
+  </si>
+  <si>
+    <t>$zo.taskKey == "e.logout" and $zn.commentReject != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160a9ba2-8927-46b8-8e7d-00118cd6f2d1</t>
+  </si>
+  <si>
+    <t>b076f642-d242-48b2-9b10-bf274c06a180</t>
+  </si>
+  <si>
+    <t>bf6c4df1-e0dd-4d8e-bd2c-e051b29f797d</t>
+  </si>
+  <si>
+    <t>7a87b941-8e10-4ac9-8384-f8df40255ebf</t>
+  </si>
+  <si>
+    <t>6b0f3e5d-2393-4596-bdc3-3ff92ad95105</t>
+  </si>
+  <si>
+    <t>e42c7f1e-616f-46e2-ace9-764c8155f99f</t>
+  </si>
+  <si>
+    <t>aa28a6f6-cd96-4466-b6d2-79a4eb41cc5e</t>
+  </si>
+  <si>
+    <t>5ff04d87-7382-4a6e-b607-b79012726ca6</t>
+  </si>
+  <si>
+    <t>ee654eb3-f278-44cf-ab0b-5703d68ca6d8</t>
+  </si>
+  <si>
+    <t>25ebb80b-3a3a-4afb-8a80-a500019ad733</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -467,6 +552,13 @@
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -591,10 +683,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -629,8 +722,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -643,9 +736,25 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{444713DD-0B90-4F5D-B5F1-D9A78D02ACDA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -949,38 +1058,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="111" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="94.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="92.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="52" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="85.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
@@ -1110,10 +1219,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>31</v>
@@ -1137,7 +1246,7 @@
         <v>34</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="11" t="b">
@@ -1145,17 +1254,17 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>36</v>
@@ -1173,13 +1282,13 @@
         <v>51</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="11" t="b">
@@ -1187,17 +1296,17 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>31</v>
@@ -1221,7 +1330,7 @@
         <v>34</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="11" t="b">
@@ -1229,17 +1338,17 @@
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>31</v>
@@ -1263,7 +1372,7 @@
         <v>34</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="11" t="b">
@@ -1271,17 +1380,17 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>31</v>
@@ -1305,7 +1414,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="11" t="b">
@@ -1313,17 +1422,17 @@
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>31</v>
@@ -1347,7 +1456,7 @@
         <v>34</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="11" t="b">
@@ -1355,17 +1464,17 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>36</v>
@@ -1380,16 +1489,16 @@
         <v>37</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="11" t="b">
@@ -1397,17 +1506,17 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>36</v>
@@ -1419,19 +1528,19 @@
         <v>1010</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="11" t="b">
@@ -1439,17 +1548,17 @@
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>36</v>
@@ -1464,16 +1573,16 @@
         <v>46</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>41</v>
@@ -1483,17 +1592,17 @@
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>36</v>
@@ -1517,7 +1626,7 @@
         <v>34</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="11" t="b">
@@ -1525,17 +1634,17 @@
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>36</v>
@@ -1559,7 +1668,7 @@
         <v>34</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="11" t="b">
@@ -1567,17 +1676,17 @@
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>44</v>
@@ -1589,19 +1698,19 @@
         <v>1005</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="I16" s="18" t="s">
         <v>34</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="11" t="b">
@@ -1609,17 +1718,17 @@
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>44</v>
@@ -1634,16 +1743,16 @@
         <v>45</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="11" t="b">
@@ -1651,17 +1760,17 @@
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>44</v>
@@ -1679,13 +1788,13 @@
         <v>47</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>41</v>
@@ -1695,17 +1804,17 @@
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>44</v>
@@ -1720,7 +1829,7 @@
         <v>40</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>57</v>
@@ -1729,7 +1838,7 @@
         <v>34</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="11" t="b">
@@ -1737,17 +1846,17 @@
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>44</v>
@@ -1762,7 +1871,7 @@
         <v>50</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>58</v>
@@ -1771,7 +1880,7 @@
         <v>34</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="11" t="b">
@@ -1779,20 +1888,20 @@
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>49</v>
@@ -1801,19 +1910,19 @@
         <v>1005</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="11" t="b">
@@ -1821,20 +1930,20 @@
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>49</v>
@@ -1843,19 +1952,19 @@
         <v>1010</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="11" t="b">
@@ -1863,20 +1972,20 @@
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>35</v>
@@ -1891,13 +2000,13 @@
         <v>47</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K23" s="11" t="s">
         <v>41</v>
@@ -1907,20 +2016,20 @@
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>49</v>
@@ -1932,7 +2041,7 @@
         <v>40</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>57</v>
@@ -1941,7 +2050,7 @@
         <v>34</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="11" t="b">
@@ -1949,20 +2058,20 @@
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>49</v>
@@ -1974,7 +2083,7 @@
         <v>50</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>58</v>
@@ -1983,7 +2092,7 @@
         <v>34</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="11" t="b">
@@ -1991,20 +2100,20 @@
       </c>
       <c r="M25" s="11"/>
       <c r="N25" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>49</v>
@@ -2013,19 +2122,19 @@
         <v>1020</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>34</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="11" t="b">
@@ -2033,10 +2142,458 @@
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="25">
+        <v>2005</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L27" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" s="27"/>
+      <c r="N27" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="25">
+        <v>2005</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="L28" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" s="27"/>
+      <c r="N28" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="25">
+        <v>2005</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" s="27"/>
+      <c r="N29" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="25">
+        <v>2005</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="L30" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" s="27"/>
+      <c r="N30" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="25">
+        <v>2005</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L31" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" s="27"/>
+      <c r="N31" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="25">
+        <v>2005</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="L32" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" s="27"/>
+      <c r="N32" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="25">
+        <v>2010</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="L33" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="N33" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="25">
+        <v>2010</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="L34" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="N34" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="25">
+        <v>2010</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="L35" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="N35" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="25">
+        <v>2010</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K36" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="L36" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="N36" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-out/activity-rule.xlsx
+++ b/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-out/activity-rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xuanhong\zero-ws\zero-extension\zero-erp\src\main\resources\plugin\erp\oob\rule\process.vendor.check-out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D6AC5E-04AB-4D11-B55B-86552679CB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FD0DD1-BC5D-4293-ABCC-45A8DE566025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="138">
   <si>
     <t>key</t>
   </si>
@@ -509,6 +509,13 @@
   </si>
   <si>
     <t>25ebb80b-3a3a-4afb-8a80-a500019ad733</t>
+  </si>
+  <si>
+    <t>$zn.status == "DRAFT" and $zo.acceptedBy != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5911b233-7290-4315-8f51-1ce34b0536df</t>
   </si>
 </sst>
 </file>
@@ -687,7 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -736,21 +743,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1066,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P36"/>
+  <dimension ref="A2:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -1303,7 +1298,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>76</v>
@@ -1312,19 +1307,19 @@
         <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E7" s="9">
         <v>1010</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>34</v>
@@ -1332,7 +1327,9 @@
       <c r="J7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L7" s="11" t="b">
         <v>1</v>
       </c>
@@ -1345,7 +1342,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>76</v>
@@ -1360,13 +1357,13 @@
         <v>1010</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>34</v>
@@ -1387,7 +1384,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>76</v>
@@ -1398,17 +1395,17 @@
       <c r="D9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="17">
-        <v>1015</v>
+      <c r="E9" s="9">
+        <v>1010</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>34</v>
@@ -1429,7 +1426,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>76</v>
@@ -1444,13 +1441,13 @@
         <v>1015</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>34</v>
@@ -1471,28 +1468,28 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="17">
-        <v>1005</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>37</v>
+        <v>1015</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>34</v>
@@ -1513,7 +1510,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>76</v>
@@ -1524,17 +1521,17 @@
       <c r="D12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="9">
-        <v>1010</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>105</v>
+      <c r="E12" s="17">
+        <v>1005</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>34</v>
@@ -1555,7 +1552,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>76</v>
@@ -1564,19 +1561,19 @@
         <v>36</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E13" s="9">
         <v>1010</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>68</v>
+      <c r="F13" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>34</v>
@@ -1584,9 +1581,7 @@
       <c r="J13" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="K13" s="9"/>
       <c r="L13" s="11" t="b">
         <v>1</v>
       </c>
@@ -1599,7 +1594,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>76</v>
@@ -1608,19 +1603,19 @@
         <v>36</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E14" s="9">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>34</v>
@@ -1628,7 +1623,9 @@
       <c r="J14" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L14" s="11" t="b">
         <v>1</v>
       </c>
@@ -1641,7 +1638,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>76</v>
@@ -1656,13 +1653,13 @@
         <v>1015</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>34</v>
@@ -1683,30 +1680,30 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="9">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J16" s="11" t="s">
@@ -1725,7 +1722,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>76</v>
@@ -1737,18 +1734,18 @@
         <v>49</v>
       </c>
       <c r="E17" s="9">
-        <v>1010</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>45</v>
+        <v>1005</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="18" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="11" t="s">
@@ -1767,7 +1764,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>76</v>
@@ -1776,19 +1773,19 @@
         <v>44</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E18" s="9">
         <v>1010</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>46</v>
+      <c r="F18" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>34</v>
@@ -1796,9 +1793,7 @@
       <c r="J18" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="K18" s="9"/>
       <c r="L18" s="11" t="b">
         <v>1</v>
       </c>
@@ -1811,7 +1806,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>76</v>
@@ -1820,19 +1815,19 @@
         <v>44</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E19" s="9">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>34</v>
@@ -1840,7 +1835,9 @@
       <c r="J19" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K19" s="9"/>
+      <c r="K19" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L19" s="11" t="b">
         <v>1</v>
       </c>
@@ -1853,7 +1850,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>76</v>
@@ -1868,13 +1865,13 @@
         <v>1015</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>34</v>
@@ -1895,28 +1892,28 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="9">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>34</v>
@@ -1937,7 +1934,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>76</v>
@@ -1949,16 +1946,16 @@
         <v>49</v>
       </c>
       <c r="E22" s="9">
-        <v>1010</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>74</v>
+        <v>1005</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>34</v>
@@ -1979,7 +1976,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>76</v>
@@ -1988,19 +1985,19 @@
         <v>101</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E23" s="9">
         <v>1010</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>46</v>
+      <c r="F23" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>34</v>
@@ -2008,9 +2005,7 @@
       <c r="J23" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="K23" s="9"/>
       <c r="L23" s="11" t="b">
         <v>1</v>
       </c>
@@ -2023,7 +2018,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>76</v>
@@ -2032,19 +2027,19 @@
         <v>101</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E24" s="9">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>34</v>
@@ -2052,7 +2047,9 @@
       <c r="J24" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K24" s="9"/>
+      <c r="K24" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L24" s="11" t="b">
         <v>1</v>
       </c>
@@ -2065,7 +2062,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>76</v>
@@ -2080,13 +2077,13 @@
         <v>1015</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>34</v>
@@ -2107,7 +2104,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>76</v>
@@ -2119,18 +2116,18 @@
         <v>49</v>
       </c>
       <c r="E26" s="9">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J26" s="11" t="s">
@@ -2148,452 +2145,494 @@
       <c r="P26" s="11"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1020</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" s="11"/>
+      <c r="N27" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="26" t="s">
+      <c r="B28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D28" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E28" s="9">
         <v>2005</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F28" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G28" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H28" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I27" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K27" s="27" t="s">
+      <c r="I28" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="L27" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" s="27"/>
-      <c r="N27" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="24" t="s">
+      <c r="L28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" s="11"/>
+      <c r="N28" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="26" t="s">
+      <c r="B29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D29" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E29" s="9">
         <v>2005</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F29" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G29" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H29" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K28" s="27" t="s">
+      <c r="I29" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="L28" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28" s="27"/>
-      <c r="N28" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="24" t="s">
+      <c r="L29" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" s="11"/>
+      <c r="N29" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="26" t="s">
+      <c r="B30" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D30" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E30" s="9">
         <v>2005</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F30" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G30" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H30" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I29" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K29" s="27" t="s">
+      <c r="I30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K30" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="L29" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M29" s="27"/>
-      <c r="N29" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="24" t="s">
+      <c r="L30" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" s="11"/>
+      <c r="N30" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="26" t="s">
+      <c r="B31" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D31" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E31" s="9">
         <v>2005</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F31" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="G31" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H31" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I30" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K30" s="27" t="s">
+      <c r="I31" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K31" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="L30" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M30" s="27"/>
-      <c r="N30" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31" s="24" t="s">
+      <c r="L31" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" s="11"/>
+      <c r="N31" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="26" t="s">
+      <c r="B32" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D32" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E32" s="9">
         <v>2005</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F32" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G31" s="30" t="s">
+      <c r="G32" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="H32" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I31" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K31" s="27" t="s">
+      <c r="I32" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="L31" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M31" s="27"/>
-      <c r="N31" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A32" s="24" t="s">
+      <c r="L32" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" s="11"/>
+      <c r="N32" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="26" t="s">
+      <c r="B33" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D33" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E33" s="9">
         <v>2005</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F33" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G32" s="30" t="s">
+      <c r="G33" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H33" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I32" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K32" s="27" t="s">
+      <c r="I33" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="L32" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M32" s="27"/>
-      <c r="N32" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" s="24" t="s">
+      <c r="L33" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" s="11"/>
+      <c r="N33" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="26" t="s">
+      <c r="B34" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D34" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E34" s="9">
         <v>2010</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F34" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G33" s="30" t="s">
+      <c r="G34" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H34" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="I33" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="J33" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K33" s="27" t="s">
+      <c r="I34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="L33" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M33" s="27" t="s">
+      <c r="L34" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="N33" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="24" t="s">
+      <c r="N34" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="26" t="s">
+      <c r="B35" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D35" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E35" s="9">
         <v>2010</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F35" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G34" s="30" t="s">
+      <c r="G35" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H35" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="I34" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="J34" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K34" s="27" t="s">
+      <c r="I35" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="L34" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M34" s="27" t="s">
+      <c r="L35" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="N34" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A35" s="24" t="s">
+      <c r="N35" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="26" t="s">
+      <c r="B36" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D36" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E36" s="9">
         <v>2010</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F36" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G36" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H36" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="I35" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K35" s="27" t="s">
+      <c r="I36" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K36" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="L35" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M35" s="27" t="s">
+      <c r="L36" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="N35" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A36" s="24" t="s">
+      <c r="N36" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="26" t="s">
+      <c r="B37" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D37" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E37" s="9">
         <v>2010</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F37" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G37" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="H36" s="27" t="s">
+      <c r="H37" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="I36" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="J36" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K36" s="27" t="s">
+      <c r="I37" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="L36" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M36" s="27" t="s">
+      <c r="L37" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="N36" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
+      <c r="N37" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-out/activity-rule.xlsx
+++ b/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-out/activity-rule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xuanhong\zero-ws\zero-extension\zero-erp\src\main\resources\plugin\erp\oob\rule\process.vendor.check-out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FD0DD1-BC5D-4293-ABCC-45A8DE566025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6365C017-E745-4FAF-A9F8-335E08E6220B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="135">
   <si>
     <t>key</t>
   </si>
@@ -150,18 +150,6 @@
   </si>
   <si>
     <t>e.draft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则名空间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleNs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn.originx.vie.app.xc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1061,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P37"/>
+  <dimension ref="A2:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -1077,18 +1065,17 @@
     <col min="6" max="6" width="19.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="68.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="92.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="52" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="85.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.81640625" style="2"/>
+    <col min="9" max="9" width="22.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="85.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1110,9 +1097,8 @@
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1126,7 +1112,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>10</v>
@@ -1138,31 +1124,28 @@
         <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +1159,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>18</v>
@@ -1188,1451 +1171,1349 @@
         <v>24</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E5" s="9">
         <v>1005</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="H5" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="B6" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E6" s="9">
         <v>1005</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" s="9">
         <v>1010</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="J7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="B8" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E8" s="9">
         <v>1010</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E9" s="9">
         <v>1010</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="H9" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" s="17">
         <v>1015</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" s="17">
         <v>1015</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E12" s="17">
         <v>1005</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="11"/>
       <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E13" s="9">
         <v>1010</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="11"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E14" s="9">
         <v>1010</v>
       </c>
       <c r="F14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E15" s="9">
         <v>1015</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="11"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E16" s="9">
         <v>1015</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="H16" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="11"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E17" s="9">
         <v>1005</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="I17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="11"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E18" s="9">
         <v>1010</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="11"/>
       <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" s="9">
         <v>1010</v>
       </c>
       <c r="F19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E20" s="9">
         <v>1015</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="11"/>
       <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E21" s="9">
         <v>1015</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N21" s="11"/>
       <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E22" s="9">
         <v>1005</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" s="11"/>
-      <c r="N22" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" s="11"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E23" s="9">
         <v>1010</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23" s="11"/>
       <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E24" s="9">
         <v>1010</v>
       </c>
       <c r="F24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L24" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E25" s="9">
         <v>1015</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="11"/>
+      <c r="M25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N25" s="11"/>
       <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E26" s="9">
         <v>1015</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" s="11"/>
+      <c r="M26" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N26" s="11"/>
       <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E27" s="9">
         <v>1020</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" s="11"/>
-      <c r="N27" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N27" s="11"/>
       <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E28" s="9">
         <v>2005</v>
       </c>
       <c r="F28" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="K28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="L28" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28" s="11"/>
-      <c r="N28" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="D29" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E29" s="9">
         <v>2005</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G29" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" s="11"/>
+      <c r="M29" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L29" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M29" s="11"/>
-      <c r="N29" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="D30" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E30" s="9">
         <v>2005</v>
       </c>
       <c r="F30" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="K30" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="L30" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="D31" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E31" s="9">
         <v>2005</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>34</v>
+        <v>111</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L31" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M31" s="11"/>
-      <c r="N31" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="K31" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N31" s="11"/>
       <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E32" s="9">
         <v>2005</v>
       </c>
       <c r="F32" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J32" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="K32" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" s="11"/>
+      <c r="M32" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="L32" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="D33" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E33" s="9">
         <v>2005</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>34</v>
+        <v>111</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K33" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K33" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="24" t="s">
         <v>115</v>
-      </c>
-      <c r="L33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M33" s="11"/>
-      <c r="N33" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>118</v>
       </c>
       <c r="E34" s="9">
         <v>2010</v>
       </c>
       <c r="F34" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="K34" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L34" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="N34" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="M34" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N34" s="11"/>
       <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E35" s="9">
         <v>2010</v>
       </c>
       <c r="F35" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J35" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="K35" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L35" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="N35" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="M35" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N35" s="11"/>
       <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E36" s="9">
         <v>2010</v>
       </c>
       <c r="F36" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J36" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="K36" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="M36" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="I36" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L36" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="N36" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>124</v>
-      </c>
       <c r="D37" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E37" s="9">
         <v>2010</v>
       </c>
       <c r="F37" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="K37" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="H37" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L37" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="N37" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="M37" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N37" s="11"/>
       <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
